--- a/DateBase/orders/Nhat 48_2026-1-2.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-2.xlsx
@@ -597,6 +597,9 @@
       <c r="C21" t="str">
         <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -658,7 +661,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015151512101512106561010510302015100</v>
+        <v>0151515121015121065610105103020151010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-2.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-2.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -601,9 +601,57 @@
         <v>10</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>326_红继木_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>682_锦鲤粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L27"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -661,7 +709,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151515121015121065610105103020151010</v>
+        <v>015151512101512106561010510302015101010108101015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-2.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-2.xlsx
@@ -711,6 +711,9 @@
       <c r="G2" t="str">
         <v>015151512101512106561010510302015101010108101015</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
